--- a/biology/Zoologie/Eupanacra_regularis/Eupanacra_regularis.xlsx
+++ b/biology/Zoologie/Eupanacra_regularis/Eupanacra_regularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupanacra regularis est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Macroglossina et du genre Eupanacra.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est très proche d'Eupanacra automedon on l'en distingue facilement le par marquages blanc de l'apex de le face dorsal de l'aile antérieur, disposés presque linéairement (contrairement à Eupanacra automedon) de sorte que la forme en W typique de l'espèce est à peine discernable.
 			Face dorsale du mâle (coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue en Inde et en Asie du Sud-Est, notamment en Birmanie, en Thaïlande, en Malaisie péninsulaire et en Indonésie (Sumatra, Bornéo, Java).</t>
@@ -575,16 +591,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Eupanacra regularis a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1875, sous le nom initial de Panacra regularis[1].
-Synonymie
-Panacra regularis Butler, 1875 protonyme
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Eupanacra regularis a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1875, sous le nom initial de Panacra regularis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eupanacra_regularis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupanacra_regularis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Panacra regularis Butler, 1875 protonyme
 Panacra dohertyi Rothschild, 1894
 Eupoanacra dohertyi Rothschild, 1894
-Panacra regularis continentalis Gehlen, 1930
-Liste des sous-espèces
-Eupanacra regularis regularis
+Panacra regularis continentalis Gehlen, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eupanacra_regularis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupanacra_regularis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eupanacra regularis regularis
 Eupanacra regularis continentalis (Gehlen, 1930) (India)</t>
         </is>
       </c>
